--- a/Own_model/model creation/pred_youtube_cleaned_for_label.xlsx
+++ b/Own_model/model creation/pred_youtube_cleaned_for_label.xlsx
@@ -7879,7 +7879,7 @@
         <v>1669</v>
       </c>
       <c r="C178">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D178" t="s">
         <v>1670</v>
@@ -21274,7 +21274,7 @@
         <v>1669</v>
       </c>
       <c r="C1135">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D1135" t="s">
         <v>1671</v>
@@ -27462,7 +27462,7 @@
         <v>1669</v>
       </c>
       <c r="C1577">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D1577" t="s">
         <v>1671</v>
@@ -29870,7 +29870,7 @@
         <v>1669</v>
       </c>
       <c r="C1749">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D1749" t="s">
         <v>1671</v>
